--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249926.8680385994</v>
+        <v>-251814.4495550012</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>217.0719054122272</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>210.1990295646177</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>145.0714343917598</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>62.27914576410206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>176.7192160363703</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>113.9651051871561</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>155.2662388797017</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>359.9587936222885</v>
       </c>
       <c r="F8" t="n">
-        <v>364.6702895887628</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,16 +1190,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8608514409109</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>158.1533921626215</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>40.14835061635355</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>26.7490458321426</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.42841042764233</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>188.1607094910709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>145.1181220076144</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>49.43322138059025</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750033</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>22.92132682626269</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>286.0821196639543</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>224.8952567231518</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>204.1291651532051</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>113.0862448584885</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>91.26047178278894</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437399</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897887</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571475</v>
+        <v>55.21598883571487</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523555</v>
+        <v>54.76109577523567</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692889</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373698</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1915.885988017521</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C2" t="n">
-        <v>1915.885988017521</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D2" t="n">
-        <v>1557.620289410771</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1171.832036812527</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>1781.224209387568</v>
       </c>
       <c r="X2" t="n">
-        <v>1915.885988017521</v>
+        <v>1781.224209387568</v>
       </c>
       <c r="Y2" t="n">
-        <v>1915.885988017521</v>
+        <v>1781.224209387568</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X4" t="n">
-        <v>285.8510101265796</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.942782082032</v>
+        <v>246.1363086691491</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1150.836072463478</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C5" t="n">
-        <v>1150.836072463478</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>792.5703738567279</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>406.7821212584836</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>399.8366205092802</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>385.9132164478711</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2582.032823152408</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2582.032823152408</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2328.271037790499</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>1997.208150446929</v>
       </c>
       <c r="W5" t="n">
-        <v>1914.44116270037</v>
+        <v>1997.208150446929</v>
       </c>
       <c r="X5" t="n">
-        <v>1540.97540443929</v>
+        <v>1623.742392185849</v>
       </c>
       <c r="Y5" t="n">
-        <v>1150.836072463478</v>
+        <v>1233.603060210037</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>256.4340909802015</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X7" t="n">
-        <v>256.4340909802015</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>256.4340909802015</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1167.455337753612</v>
+        <v>919.0673236324992</v>
       </c>
       <c r="C8" t="n">
-        <v>1167.455337753612</v>
+        <v>919.0673236324992</v>
       </c>
       <c r="D8" t="n">
-        <v>1167.455337753612</v>
+        <v>919.0673236324992</v>
       </c>
       <c r="E8" t="n">
-        <v>1167.455337753612</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>1540.921096014692</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X8" t="n">
-        <v>1167.455337753612</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="Y8" t="n">
-        <v>1167.455337753612</v>
+        <v>1305.667163696621</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4890,34 +4890,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>340.388532134052</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>340.388532134052</v>
       </c>
       <c r="D10" t="n">
-        <v>559.1928012785273</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>559.1928012785273</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>559.1928012785273</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>340.388532134052</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550601</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610189</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5060,31 +5060,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5106,34 +5106,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115524</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>507.0827848727882</v>
+        <v>438.3056288361464</v>
       </c>
       <c r="C13" t="n">
-        <v>507.0827848727882</v>
+        <v>438.3056288361464</v>
       </c>
       <c r="D13" t="n">
-        <v>507.0827848727882</v>
+        <v>288.1889894238108</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557899</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473451</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473451</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1271.977022259166</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V13" t="n">
-        <v>1017.292534053279</v>
+        <v>909.3712637033468</v>
       </c>
       <c r="W13" t="n">
-        <v>727.8753640163183</v>
+        <v>619.9540936663861</v>
       </c>
       <c r="X13" t="n">
-        <v>727.8753640163183</v>
+        <v>619.9540936663861</v>
       </c>
       <c r="Y13" t="n">
-        <v>507.0827848727882</v>
+        <v>619.9540936663861</v>
       </c>
     </row>
     <row r="14">
@@ -5255,52 +5255,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514094</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1912.313820009359</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2432.614441745106</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.6350999123425</v>
+        <v>710.6134626728257</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123425</v>
+        <v>710.6134626728257</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>710.6134626728257</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
         <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5455,31 +5455,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655739</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286133</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X16" t="n">
-        <v>437.696422630596</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.6350999123425</v>
+        <v>785.7936752259998</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5513,19 +5513,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5598,22 +5598,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>731.0291971045608</v>
+        <v>761.0055017299131</v>
       </c>
       <c r="C19" t="n">
-        <v>562.0930141766539</v>
+        <v>592.0693188020063</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9763747643182</v>
+        <v>441.9526793896705</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>294.0395858072774</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>147.1496383093669</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>147.1496383093669</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>147.1496383093669</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,7 +5674,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799364</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W19" t="n">
-        <v>731.0291971045608</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X19" t="n">
-        <v>731.0291971045608</v>
+        <v>981.7980808734433</v>
       </c>
       <c r="Y19" t="n">
-        <v>731.0291971045608</v>
+        <v>761.0055017299131</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,43 +5735,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5792,10 +5792,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2507.25999687553</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5914,7 +5914,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5938,22 +5938,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387593</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>762.9293510964552</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>762.9293510964552</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>762.9293510964552</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
@@ -5984,49 +5984,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,7 +6063,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6075,7 +6075,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1010.024422429056</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>755.3399342231696</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="26">
@@ -6206,52 +6206,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6312,13 +6312,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765184</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706316</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>499.6581354340556</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6443,34 +6443,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6479,7 +6479,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6549,13 +6549,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>451.1914993430009</v>
+        <v>565.4200295030878</v>
       </c>
       <c r="C31" t="n">
-        <v>451.1914993430009</v>
+        <v>452.2447118565518</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430009</v>
+        <v>360.0624171264619</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430009</v>
+        <v>360.0624171264619</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264616</v>
+        <v>360.0624171264619</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276531</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962059</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737485</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818958</v>
+        <v>902.6804289818937</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652495</v>
+        <v>730.4517433652471</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030904</v>
+        <v>565.4200295030878</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6783,16 +6783,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6838,13 +6838,13 @@
         <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6856,10 +6856,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7020,16 +7020,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525404</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649695</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,61 +7163,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7257,16 +7257,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,43 +7397,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7494,16 +7494,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
         <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,7 +7564,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>288.4091825776758</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>104.8749102765746</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>29.47535963978235</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298479</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>106.2856120302156</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>259.4883065664347</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>105.403569754295</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,13 +23659,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>30.4239438610239</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.315840638954768</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>60.98602408368173</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23941,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,13 +24130,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24178,22 +24178,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>229.2163164975653</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.1552327346230413</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>61.34209567542555</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>82.39383318338594</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.54247869489154</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896551</v>
+        <v>2.151744606866302</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801192</v>
+        <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437413</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1135819.634148765</v>
+        <v>1135819.634148766</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1135819.634148766</v>
+        <v>1135819.634148765</v>
       </c>
     </row>
     <row r="7">
@@ -26314,13 +26314,13 @@
         <v>266838.5752058921</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058924</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="E2" t="n">
-        <v>254168.8888295107</v>
+        <v>254168.8888295108</v>
       </c>
       <c r="F2" t="n">
         <v>254168.8888295108</v>
@@ -26329,10 +26329,10 @@
         <v>254168.8888295108</v>
       </c>
       <c r="H2" t="n">
+        <v>254168.8888295108</v>
+      </c>
+      <c r="I2" t="n">
         <v>254168.8888295107</v>
-      </c>
-      <c r="I2" t="n">
-        <v>254168.8888295108</v>
       </c>
       <c r="J2" t="n">
         <v>254168.8888295107</v>
@@ -26341,19 +26341,19 @@
         <v>264434.389274426</v>
       </c>
       <c r="L2" t="n">
+        <v>266838.5752058922</v>
+      </c>
+      <c r="M2" t="n">
+        <v>266838.5752058923</v>
+      </c>
+      <c r="N2" t="n">
+        <v>266838.5752058922</v>
+      </c>
+      <c r="O2" t="n">
         <v>266838.5752058921</v>
       </c>
-      <c r="M2" t="n">
-        <v>266838.5752058921</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>266838.5752058923</v>
-      </c>
-      <c r="O2" t="n">
-        <v>266838.5752058923</v>
-      </c>
-      <c r="P2" t="n">
-        <v>266838.5752058922</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028458</v>
+        <v>44162.60530284569</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086676</v>
+        <v>10342.90680086683</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284593</v>
+        <v>44162.60530284571</v>
       </c>
     </row>
     <row r="4">
@@ -26424,31 +26424,31 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687068</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106732</v>
+        <v>40339.23010106726</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819116</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
         <v>44593.39482819119</v>
@@ -26457,7 +26457,7 @@
         <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-571621.2498585861</v>
       </c>
       <c r="C6" t="n">
-        <v>18346.62935595852</v>
+        <v>18346.6293559584</v>
       </c>
       <c r="D6" t="n">
-        <v>18346.62935595846</v>
+        <v>18346.62935595834</v>
       </c>
       <c r="E6" t="n">
-        <v>-385153.0811829727</v>
+        <v>-385250.5403089448</v>
       </c>
       <c r="F6" t="n">
-        <v>140006.9552939233</v>
+        <v>139909.4961679513</v>
       </c>
       <c r="G6" t="n">
-        <v>140006.9552939235</v>
+        <v>139909.4961679513</v>
       </c>
       <c r="H6" t="n">
-        <v>140006.9552939234</v>
+        <v>139909.4961679513</v>
       </c>
       <c r="I6" t="n">
-        <v>140006.9552939234</v>
+        <v>139909.4961679512</v>
       </c>
       <c r="J6" t="n">
-        <v>-36416.26389866964</v>
+        <v>-36513.72302464169</v>
       </c>
       <c r="K6" t="n">
-        <v>83304.34534029012</v>
+        <v>83285.85160235595</v>
       </c>
       <c r="L6" t="n">
         <v>114187.1677568088</v>
       </c>
       <c r="M6" t="n">
-        <v>-10270.94067616158</v>
+        <v>-10270.94067616147</v>
       </c>
       <c r="N6" t="n">
-        <v>124530.0745576757</v>
+        <v>124530.0745576756</v>
       </c>
       <c r="O6" t="n">
-        <v>124530.0745576757</v>
+        <v>124530.0745576755</v>
       </c>
       <c r="P6" t="n">
-        <v>80367.46925482969</v>
+        <v>80367.46925482996</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,34 +26750,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="O3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26820,7 +26820,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108345</v>
+        <v>12.92863350108354</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>189.8041403294843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>139.0419391527953</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>22.23836786729115</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>156.3055075879927</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>147.2035567279869</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>60.45060762181541</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,10 +27673,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>11.98058221892614</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>17.64056718375454</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>21.97157644997327</v>
       </c>
       <c r="F8" t="n">
-        <v>42.20575615294865</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>3.448950818140048</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>60.4312611894733</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-3.126388037344441e-12</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6668875337001</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35504,7 +35504,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35583,7 +35583,7 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006117976</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
         <v>39.22569997187475</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.689756130333</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35741,10 +35741,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>192.8879430616487</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>117.4883924248565</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>560.035498861915</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>560.035498861915</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412277</v>
+        <v>67.71102679412265</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.428956600432</v>
+        <v>94.42895660043187</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970350042</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37561,10 +37561,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>526.9295015768301</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
